--- a/300inout.xlsx
+++ b/300inout.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7270"/>
+    <workbookView windowWidth="18530" windowHeight="7270"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="20080630" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$1943</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$1973</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10391" uniqueCount="1995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10451" uniqueCount="2000">
   <si>
     <t>变更日期</t>
   </si>
@@ -6033,6 +6033,21 @@
   <si>
     <t>大全能源</t>
   </si>
+  <si>
+    <t>2023-06-11</t>
+  </si>
+  <si>
+    <t>中油资本</t>
+  </si>
+  <si>
+    <t>山西焦煤</t>
+  </si>
+  <si>
+    <t>爱旭股份</t>
+  </si>
+  <si>
+    <t>晶科能源</t>
+  </si>
 </sst>
 </file>
 
@@ -6044,7 +6059,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6060,18 +6075,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="11.05"/>
+      <color rgb="FF000000"/>
+      <name val="仿宋_GB2312"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6524,10 +6531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6536,31 +6543,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6572,97 +6582,94 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6677,13 +6684,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -7034,12 +7039,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1973"/>
+  <dimension ref="A1:D1991"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1955" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1973" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D1959" sqref="D1959:D1973"/>
+      <selection pane="bottomLeft" activeCell="B1983" sqref="B1983:B1991"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -33470,10 +33475,10 @@
       <c r="A1888" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1888" s="5" t="s">
+      <c r="B1888" s="3" t="s">
         <v>1662</v>
       </c>
-      <c r="C1888" s="5" t="s">
+      <c r="C1888" s="3" t="s">
         <v>1937</v>
       </c>
       <c r="D1888" s="1" t="s">
@@ -33484,10 +33489,10 @@
       <c r="A1889" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1889" s="5" t="s">
+      <c r="B1889" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C1889" s="5" t="s">
+      <c r="C1889" s="3" t="s">
         <v>1938</v>
       </c>
       <c r="D1889" s="1" t="s">
@@ -33498,10 +33503,10 @@
       <c r="A1890" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1890" s="5" t="s">
+      <c r="B1890" s="3" t="s">
         <v>1939</v>
       </c>
-      <c r="C1890" s="5" t="s">
+      <c r="C1890" s="3" t="s">
         <v>1940</v>
       </c>
       <c r="D1890" s="1" t="s">
@@ -33512,10 +33517,10 @@
       <c r="A1891" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1891" s="5" t="s">
+      <c r="B1891" s="3" t="s">
         <v>1941</v>
       </c>
-      <c r="C1891" s="5" t="s">
+      <c r="C1891" s="3" t="s">
         <v>1942</v>
       </c>
       <c r="D1891" s="1" t="s">
@@ -33526,10 +33531,10 @@
       <c r="A1892" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1892" s="5" t="s">
+      <c r="B1892" s="3" t="s">
         <v>1497</v>
       </c>
-      <c r="C1892" s="5" t="s">
+      <c r="C1892" s="3" t="s">
         <v>1498</v>
       </c>
       <c r="D1892" s="1" t="s">
@@ -33540,10 +33545,10 @@
       <c r="A1893" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1893" s="5" t="s">
+      <c r="B1893" s="3" t="s">
         <v>1943</v>
       </c>
-      <c r="C1893" s="5" t="s">
+      <c r="C1893" s="3" t="s">
         <v>1944</v>
       </c>
       <c r="D1893" s="1" t="s">
@@ -33554,10 +33559,10 @@
       <c r="A1894" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1894" s="5" t="s">
+      <c r="B1894" s="3" t="s">
         <v>1945</v>
       </c>
-      <c r="C1894" s="5" t="s">
+      <c r="C1894" s="3" t="s">
         <v>1946</v>
       </c>
       <c r="D1894" s="1" t="s">
@@ -33568,10 +33573,10 @@
       <c r="A1895" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1895" s="5" t="s">
+      <c r="B1895" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="C1895" s="5" t="s">
+      <c r="C1895" s="3" t="s">
         <v>1948</v>
       </c>
       <c r="D1895" s="1" t="s">
@@ -33582,10 +33587,10 @@
       <c r="A1896" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1896" s="5" t="s">
+      <c r="B1896" s="3" t="s">
         <v>1949</v>
       </c>
-      <c r="C1896" s="5" t="s">
+      <c r="C1896" s="3" t="s">
         <v>1950</v>
       </c>
       <c r="D1896" s="1" t="s">
@@ -33596,10 +33601,10 @@
       <c r="A1897" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1897" s="5" t="s">
+      <c r="B1897" s="3" t="s">
         <v>1951</v>
       </c>
-      <c r="C1897" s="5" t="s">
+      <c r="C1897" s="3" t="s">
         <v>1952</v>
       </c>
       <c r="D1897" s="1" t="s">
@@ -33610,10 +33615,10 @@
       <c r="A1898" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1898" s="5" t="s">
+      <c r="B1898" s="3" t="s">
         <v>1953</v>
       </c>
-      <c r="C1898" s="5" t="s">
+      <c r="C1898" s="3" t="s">
         <v>1954</v>
       </c>
       <c r="D1898" s="1" t="s">
@@ -33624,10 +33629,10 @@
       <c r="A1899" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1899" s="5" t="s">
+      <c r="B1899" s="3" t="s">
         <v>1955</v>
       </c>
-      <c r="C1899" s="5" t="s">
+      <c r="C1899" s="3" t="s">
         <v>1956</v>
       </c>
       <c r="D1899" s="1" t="s">
@@ -33638,10 +33643,10 @@
       <c r="A1900" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1900" s="5" t="s">
+      <c r="B1900" s="3" t="s">
         <v>1957</v>
       </c>
-      <c r="C1900" s="5" t="s">
+      <c r="C1900" s="3" t="s">
         <v>1958</v>
       </c>
       <c r="D1900" s="1" t="s">
@@ -33652,10 +33657,10 @@
       <c r="A1901" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1901" s="5" t="s">
+      <c r="B1901" s="3" t="s">
         <v>1959</v>
       </c>
-      <c r="C1901" s="5" t="s">
+      <c r="C1901" s="3" t="s">
         <v>1960</v>
       </c>
       <c r="D1901" s="1" t="s">
@@ -33666,10 +33671,10 @@
       <c r="A1902" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1902" s="5" t="s">
+      <c r="B1902" s="3" t="s">
         <v>1961</v>
       </c>
-      <c r="C1902" s="5" t="s">
+      <c r="C1902" s="3" t="s">
         <v>1962</v>
       </c>
       <c r="D1902" s="1" t="s">
@@ -33680,10 +33685,10 @@
       <c r="A1903" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1903" s="5" t="s">
+      <c r="B1903" s="3" t="s">
         <v>1963</v>
       </c>
-      <c r="C1903" s="5" t="s">
+      <c r="C1903" s="3" t="s">
         <v>1964</v>
       </c>
       <c r="D1903" s="1" t="s">
@@ -33694,10 +33699,10 @@
       <c r="A1904" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1904" s="5" t="s">
+      <c r="B1904" s="3" t="s">
         <v>1965</v>
       </c>
-      <c r="C1904" s="5" t="s">
+      <c r="C1904" s="3" t="s">
         <v>1966</v>
       </c>
       <c r="D1904" s="1" t="s">
@@ -33708,10 +33713,10 @@
       <c r="A1905" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1905" s="5" t="s">
+      <c r="B1905" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C1905" s="5" t="s">
+      <c r="C1905" s="3" t="s">
         <v>329</v>
       </c>
       <c r="D1905" s="1" t="s">
@@ -33722,10 +33727,10 @@
       <c r="A1906" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1906" s="5" t="s">
+      <c r="B1906" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C1906" s="5" t="s">
+      <c r="C1906" s="3" t="s">
         <v>1967</v>
       </c>
       <c r="D1906" s="1" t="s">
@@ -33736,10 +33741,10 @@
       <c r="A1907" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1907" s="5" t="s">
+      <c r="B1907" s="3" t="s">
         <v>848</v>
       </c>
-      <c r="C1907" s="5" t="s">
+      <c r="C1907" s="3" t="s">
         <v>849</v>
       </c>
       <c r="D1907" s="1" t="s">
@@ -33750,10 +33755,10 @@
       <c r="A1908" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1908" s="5" t="s">
+      <c r="B1908" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="C1908" s="5" t="s">
+      <c r="C1908" s="3" t="s">
         <v>701</v>
       </c>
       <c r="D1908" s="1" t="s">
@@ -33764,10 +33769,10 @@
       <c r="A1909" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1909" s="5" t="s">
+      <c r="B1909" s="3" t="s">
         <v>1968</v>
       </c>
-      <c r="C1909" s="5" t="s">
+      <c r="C1909" s="3" t="s">
         <v>1969</v>
       </c>
       <c r="D1909" s="1" t="s">
@@ -33778,10 +33783,10 @@
       <c r="A1910" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1910" s="5" t="s">
+      <c r="B1910" s="3" t="s">
         <v>1074</v>
       </c>
-      <c r="C1910" s="5" t="s">
+      <c r="C1910" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="D1910" s="1" t="s">
@@ -33792,10 +33797,10 @@
       <c r="A1911" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1911" s="5" t="s">
+      <c r="B1911" s="3" t="s">
         <v>1970</v>
       </c>
-      <c r="C1911" s="5" t="s">
+      <c r="C1911" s="3" t="s">
         <v>1971</v>
       </c>
       <c r="D1911" s="1" t="s">
@@ -33806,10 +33811,10 @@
       <c r="A1912" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1912" s="5" t="s">
+      <c r="B1912" s="3" t="s">
         <v>1972</v>
       </c>
-      <c r="C1912" s="5" t="s">
+      <c r="C1912" s="3" t="s">
         <v>1973</v>
       </c>
       <c r="D1912" s="1" t="s">
@@ -33820,10 +33825,10 @@
       <c r="A1913" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1913" s="5" t="s">
+      <c r="B1913" s="3" t="s">
         <v>1974</v>
       </c>
-      <c r="C1913" s="5" t="s">
+      <c r="C1913" s="3" t="s">
         <v>1975</v>
       </c>
       <c r="D1913" s="1" t="s">
@@ -33834,10 +33839,10 @@
       <c r="A1914" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1914" s="5" t="s">
+      <c r="B1914" s="3" t="s">
         <v>1976</v>
       </c>
-      <c r="C1914" s="5" t="s">
+      <c r="C1914" s="3" t="s">
         <v>1977</v>
       </c>
       <c r="D1914" s="1" t="s">
@@ -33848,10 +33853,10 @@
       <c r="A1915" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1915" s="5" t="s">
+      <c r="B1915" s="3" t="s">
         <v>1978</v>
       </c>
-      <c r="C1915" s="5" t="s">
+      <c r="C1915" s="3" t="s">
         <v>1979</v>
       </c>
       <c r="D1915" s="1" t="s">
@@ -33862,10 +33867,10 @@
       <c r="A1916" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1916" s="5" t="s">
+      <c r="B1916" s="3" t="s">
         <v>939</v>
       </c>
-      <c r="C1916" s="5" t="s">
+      <c r="C1916" s="3" t="s">
         <v>940</v>
       </c>
       <c r="D1916" s="1" t="s">
@@ -33876,10 +33881,10 @@
       <c r="A1917" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1917" s="5" t="s">
+      <c r="B1917" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C1917" s="5" t="s">
+      <c r="C1917" s="3" t="s">
         <v>1980</v>
       </c>
       <c r="D1917" s="1" t="s">
@@ -33890,10 +33895,10 @@
       <c r="A1918" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1918" s="5" t="s">
+      <c r="B1918" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="C1918" s="5" t="s">
+      <c r="C1918" s="3" t="s">
         <v>1533</v>
       </c>
       <c r="D1918" s="1" t="s">
@@ -33904,10 +33909,10 @@
       <c r="A1919" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1919" s="5" t="s">
+      <c r="B1919" s="3" t="s">
         <v>1765</v>
       </c>
-      <c r="C1919" s="5" t="s">
+      <c r="C1919" s="3" t="s">
         <v>1766</v>
       </c>
       <c r="D1919" s="1" t="s">
@@ -33918,10 +33923,10 @@
       <c r="A1920" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1920" s="5" t="s">
+      <c r="B1920" s="3" t="s">
         <v>1599</v>
       </c>
-      <c r="C1920" s="5" t="s">
+      <c r="C1920" s="3" t="s">
         <v>1600</v>
       </c>
       <c r="D1920" s="1" t="s">
@@ -33932,10 +33937,10 @@
       <c r="A1921" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1921" s="5" t="s">
+      <c r="B1921" s="3" t="s">
         <v>1428</v>
       </c>
-      <c r="C1921" s="5" t="s">
+      <c r="C1921" s="3" t="s">
         <v>1429</v>
       </c>
       <c r="D1921" s="1" t="s">
@@ -33946,10 +33951,10 @@
       <c r="A1922" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1922" s="5" t="s">
+      <c r="B1922" s="3" t="s">
         <v>1853</v>
       </c>
-      <c r="C1922" s="5" t="s">
+      <c r="C1922" s="3" t="s">
         <v>1854</v>
       </c>
       <c r="D1922" s="1" t="s">
@@ -33960,10 +33965,10 @@
       <c r="A1923" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1923" s="5" t="s">
+      <c r="B1923" s="3" t="s">
         <v>1814</v>
       </c>
-      <c r="C1923" s="5" t="s">
+      <c r="C1923" s="3" t="s">
         <v>1815</v>
       </c>
       <c r="D1923" s="1" t="s">
@@ -33974,10 +33979,10 @@
       <c r="A1924" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1924" s="5" t="s">
+      <c r="B1924" s="3" t="s">
         <v>1857</v>
       </c>
-      <c r="C1924" s="5" t="s">
+      <c r="C1924" s="3" t="s">
         <v>1858</v>
       </c>
       <c r="D1924" s="1" t="s">
@@ -33988,10 +33993,10 @@
       <c r="A1925" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1925" s="5" t="s">
+      <c r="B1925" s="3" t="s">
         <v>1911</v>
       </c>
-      <c r="C1925" s="5" t="s">
+      <c r="C1925" s="3" t="s">
         <v>1912</v>
       </c>
       <c r="D1925" s="1" t="s">
@@ -34002,10 +34007,10 @@
       <c r="A1926" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1926" s="5" t="s">
+      <c r="B1926" s="3" t="s">
         <v>1303</v>
       </c>
-      <c r="C1926" s="5" t="s">
+      <c r="C1926" s="3" t="s">
         <v>1304</v>
       </c>
       <c r="D1926" s="1" t="s">
@@ -34016,10 +34021,10 @@
       <c r="A1927" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1927" s="5" t="s">
+      <c r="B1927" s="3" t="s">
         <v>899</v>
       </c>
-      <c r="C1927" s="5" t="s">
+      <c r="C1927" s="3" t="s">
         <v>1981</v>
       </c>
       <c r="D1927" s="1" t="s">
@@ -34030,10 +34035,10 @@
       <c r="A1928" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1928" s="5" t="s">
+      <c r="B1928" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="C1928" s="5" t="s">
+      <c r="C1928" s="3" t="s">
         <v>683</v>
       </c>
       <c r="D1928" s="1" t="s">
@@ -34044,10 +34049,10 @@
       <c r="A1929" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1929" s="5" t="s">
+      <c r="B1929" s="3" t="s">
         <v>1743</v>
       </c>
-      <c r="C1929" s="5" t="s">
+      <c r="C1929" s="3" t="s">
         <v>1744</v>
       </c>
       <c r="D1929" s="1" t="s">
@@ -34058,10 +34063,10 @@
       <c r="A1930" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1930" s="5" t="s">
+      <c r="B1930" s="3" t="s">
         <v>1824</v>
       </c>
-      <c r="C1930" s="5" t="s">
+      <c r="C1930" s="3" t="s">
         <v>1825</v>
       </c>
       <c r="D1930" s="1" t="s">
@@ -34072,10 +34077,10 @@
       <c r="A1931" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1931" s="5" t="s">
+      <c r="B1931" s="3" t="s">
         <v>1651</v>
       </c>
-      <c r="C1931" s="5" t="s">
+      <c r="C1931" s="3" t="s">
         <v>1652</v>
       </c>
       <c r="D1931" s="1" t="s">
@@ -34086,10 +34091,10 @@
       <c r="A1932" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1932" s="5" t="s">
+      <c r="B1932" s="3" t="s">
         <v>1722</v>
       </c>
-      <c r="C1932" s="5" t="s">
+      <c r="C1932" s="3" t="s">
         <v>1723</v>
       </c>
       <c r="D1932" s="1" t="s">
@@ -34100,10 +34105,10 @@
       <c r="A1933" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1933" s="5" t="s">
+      <c r="B1933" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="C1933" s="5" t="s">
+      <c r="C1933" s="3" t="s">
         <v>1309</v>
       </c>
       <c r="D1933" s="1" t="s">
@@ -34114,10 +34119,10 @@
       <c r="A1934" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1934" s="5" t="s">
+      <c r="B1934" s="3" t="s">
         <v>1082</v>
       </c>
-      <c r="C1934" s="5" t="s">
+      <c r="C1934" s="3" t="s">
         <v>1083</v>
       </c>
       <c r="D1934" s="1" t="s">
@@ -34128,10 +34133,10 @@
       <c r="A1935" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1935" s="5" t="s">
+      <c r="B1935" s="3" t="s">
         <v>1828</v>
       </c>
-      <c r="C1935" s="5" t="s">
+      <c r="C1935" s="3" t="s">
         <v>1829</v>
       </c>
       <c r="D1935" s="1" t="s">
@@ -34142,10 +34147,10 @@
       <c r="A1936" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1936" s="5" t="s">
+      <c r="B1936" s="3" t="s">
         <v>1175</v>
       </c>
-      <c r="C1936" s="5" t="s">
+      <c r="C1936" s="3" t="s">
         <v>1176</v>
       </c>
       <c r="D1936" s="1" t="s">
@@ -34156,10 +34161,10 @@
       <c r="A1937" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1937" s="5" t="s">
+      <c r="B1937" s="3" t="s">
         <v>1830</v>
       </c>
-      <c r="C1937" s="5" t="s">
+      <c r="C1937" s="3" t="s">
         <v>1831</v>
       </c>
       <c r="D1937" s="1" t="s">
@@ -34170,10 +34175,10 @@
       <c r="A1938" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1938" s="5" t="s">
+      <c r="B1938" s="3" t="s">
         <v>1864</v>
       </c>
-      <c r="C1938" s="5" t="s">
+      <c r="C1938" s="3" t="s">
         <v>1865</v>
       </c>
       <c r="D1938" s="1" t="s">
@@ -34184,10 +34189,10 @@
       <c r="A1939" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1939" s="5" t="s">
+      <c r="B1939" s="3" t="s">
         <v>1866</v>
       </c>
-      <c r="C1939" s="5" t="s">
+      <c r="C1939" s="3" t="s">
         <v>1867</v>
       </c>
       <c r="D1939" s="1" t="s">
@@ -34198,10 +34203,10 @@
       <c r="A1940" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1940" s="5" t="s">
+      <c r="B1940" s="3" t="s">
         <v>1868</v>
       </c>
-      <c r="C1940" s="5" t="s">
+      <c r="C1940" s="3" t="s">
         <v>1869</v>
       </c>
       <c r="D1940" s="1" t="s">
@@ -34212,10 +34217,10 @@
       <c r="A1941" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1941" s="5" t="s">
+      <c r="B1941" s="3" t="s">
         <v>1797</v>
       </c>
-      <c r="C1941" s="5" t="s">
+      <c r="C1941" s="3" t="s">
         <v>1798</v>
       </c>
       <c r="D1941" s="1" t="s">
@@ -34226,10 +34231,10 @@
       <c r="A1942" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1942" s="5" t="s">
+      <c r="B1942" s="3" t="s">
         <v>1876</v>
       </c>
-      <c r="C1942" s="5" t="s">
+      <c r="C1942" s="3" t="s">
         <v>1877</v>
       </c>
       <c r="D1942" s="1" t="s">
@@ -34240,10 +34245,10 @@
       <c r="A1943" s="4" t="s">
         <v>1936</v>
       </c>
-      <c r="B1943" s="5" t="s">
+      <c r="B1943" s="3" t="s">
         <v>1841</v>
       </c>
-      <c r="C1943" s="5" t="s">
+      <c r="C1943" s="3" t="s">
         <v>1842</v>
       </c>
       <c r="D1943" s="1" t="s">
@@ -34257,7 +34262,7 @@
       <c r="B1944" s="6" t="s">
         <v>1587</v>
       </c>
-      <c r="C1944" s="5" t="s">
+      <c r="C1944" s="3" t="s">
         <v>1588</v>
       </c>
       <c r="D1944" s="1" t="s">
@@ -34271,7 +34276,7 @@
       <c r="B1945" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C1945" s="5" t="s">
+      <c r="C1945" s="3" t="s">
         <v>155</v>
       </c>
       <c r="D1945" s="1" t="s">
@@ -34285,7 +34290,7 @@
       <c r="B1946" s="6" t="s">
         <v>1983</v>
       </c>
-      <c r="C1946" s="5" t="s">
+      <c r="C1946" s="3" t="s">
         <v>1984</v>
       </c>
       <c r="D1946" s="1" t="s">
@@ -34299,7 +34304,7 @@
       <c r="B1947" s="6" t="s">
         <v>1985</v>
       </c>
-      <c r="C1947" s="5" t="s">
+      <c r="C1947" s="3" t="s">
         <v>1986</v>
       </c>
       <c r="D1947" s="1" t="s">
@@ -34310,10 +34315,10 @@
       <c r="A1948" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1948" s="5">
+      <c r="B1948" s="3">
         <v>300769</v>
       </c>
-      <c r="C1948" s="5" t="s">
+      <c r="C1948" s="3" t="s">
         <v>1987</v>
       </c>
       <c r="D1948" s="1" t="s">
@@ -34324,10 +34329,10 @@
       <c r="A1949" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1949" s="5">
+      <c r="B1949" s="3">
         <v>600039</v>
       </c>
-      <c r="C1949" s="5" t="s">
+      <c r="C1949" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="D1949" s="1" t="s">
@@ -34338,10 +34343,10 @@
       <c r="A1950" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1950" s="5">
+      <c r="B1950" s="3">
         <v>600233</v>
       </c>
-      <c r="C1950" s="5" t="s">
+      <c r="C1950" s="3" t="s">
         <v>1553</v>
       </c>
       <c r="D1950" s="1" t="s">
@@ -34352,10 +34357,10 @@
       <c r="A1951" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1951" s="5">
+      <c r="B1951" s="3">
         <v>600674</v>
       </c>
-      <c r="C1951" s="5" t="s">
+      <c r="C1951" s="3" t="s">
         <v>787</v>
       </c>
       <c r="D1951" s="1" t="s">
@@ -34366,10 +34371,10 @@
       <c r="A1952" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1952" s="5">
+      <c r="B1952" s="3">
         <v>600803</v>
       </c>
-      <c r="C1952" s="5" t="s">
+      <c r="C1952" s="3" t="s">
         <v>1989</v>
       </c>
       <c r="D1952" s="1" t="s">
@@ -34380,10 +34385,10 @@
       <c r="A1953" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1953" s="5">
+      <c r="B1953" s="3">
         <v>600884</v>
       </c>
-      <c r="C1953" s="5" t="s">
+      <c r="C1953" s="3" t="s">
         <v>593</v>
       </c>
       <c r="D1953" s="1" t="s">
@@ -34394,10 +34399,10 @@
       <c r="A1954" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1954" s="5">
+      <c r="B1954" s="3">
         <v>601615</v>
       </c>
-      <c r="C1954" s="5" t="s">
+      <c r="C1954" s="3" t="s">
         <v>1990</v>
       </c>
       <c r="D1954" s="1" t="s">
@@ -34408,10 +34413,10 @@
       <c r="A1955" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1955" s="5">
+      <c r="B1955" s="3">
         <v>601689</v>
       </c>
-      <c r="C1955" s="5" t="s">
+      <c r="C1955" s="3" t="s">
         <v>1991</v>
       </c>
       <c r="D1955" s="1" t="s">
@@ -34422,10 +34427,10 @@
       <c r="A1956" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1956" s="5">
+      <c r="B1956" s="3">
         <v>605117</v>
       </c>
-      <c r="C1956" s="5" t="s">
+      <c r="C1956" s="3" t="s">
         <v>1992</v>
       </c>
       <c r="D1956" s="1" t="s">
@@ -34436,10 +34441,10 @@
       <c r="A1957" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1957" s="5">
+      <c r="B1957" s="3">
         <v>688187</v>
       </c>
-      <c r="C1957" s="5" t="s">
+      <c r="C1957" s="3" t="s">
         <v>1993</v>
       </c>
       <c r="D1957" s="1" t="s">
@@ -34450,10 +34455,10 @@
       <c r="A1958" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1958" s="5">
+      <c r="B1958" s="3">
         <v>688303</v>
       </c>
-      <c r="C1958" s="5" t="s">
+      <c r="C1958" s="3" t="s">
         <v>1994</v>
       </c>
       <c r="D1958" s="1" t="s">
@@ -34467,7 +34472,7 @@
       <c r="B1959" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C1959" s="5" t="s">
+      <c r="C1959" s="3" t="s">
         <v>1760</v>
       </c>
       <c r="D1959" s="1" t="s">
@@ -34481,7 +34486,7 @@
       <c r="B1960" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="C1960" s="5" t="s">
+      <c r="C1960" s="3" t="s">
         <v>1217</v>
       </c>
       <c r="D1960" s="1" t="s">
@@ -34495,7 +34500,7 @@
       <c r="B1961" s="6" t="s">
         <v>1463</v>
       </c>
-      <c r="C1961" s="5" t="s">
+      <c r="C1961" s="3" t="s">
         <v>1464</v>
       </c>
       <c r="D1961" s="1" t="s">
@@ -34509,7 +34514,7 @@
       <c r="B1962" s="6" t="s">
         <v>1734</v>
       </c>
-      <c r="C1962" s="5" t="s">
+      <c r="C1962" s="3" t="s">
         <v>1735</v>
       </c>
       <c r="D1962" s="1" t="s">
@@ -34523,7 +34528,7 @@
       <c r="B1963" s="6" t="s">
         <v>1897</v>
       </c>
-      <c r="C1963" s="5" t="s">
+      <c r="C1963" s="3" t="s">
         <v>1898</v>
       </c>
       <c r="D1963" s="1" t="s">
@@ -34534,10 +34539,10 @@
       <c r="A1964" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1964" s="5">
+      <c r="B1964" s="3">
         <v>300003</v>
       </c>
-      <c r="C1964" s="5" t="s">
+      <c r="C1964" s="3" t="s">
         <v>1398</v>
       </c>
       <c r="D1964" s="1" t="s">
@@ -34548,10 +34553,10 @@
       <c r="A1965" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1965" s="5">
+      <c r="B1965" s="3">
         <v>300866</v>
       </c>
-      <c r="C1965" s="5" t="s">
+      <c r="C1965" s="3" t="s">
         <v>1910</v>
       </c>
       <c r="D1965" s="1" t="s">
@@ -34562,10 +34567,10 @@
       <c r="A1966" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1966" s="5">
+      <c r="B1966" s="3">
         <v>600161</v>
       </c>
-      <c r="C1966" s="5" t="s">
+      <c r="C1966" s="3" t="s">
         <v>768</v>
       </c>
       <c r="D1966" s="1" t="s">
@@ -34576,10 +34581,10 @@
       <c r="A1967" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1967" s="5">
+      <c r="B1967" s="3">
         <v>600352</v>
       </c>
-      <c r="C1967" s="5" t="s">
+      <c r="C1967" s="3" t="s">
         <v>1012</v>
       </c>
       <c r="D1967" s="1" t="s">
@@ -34590,10 +34595,10 @@
       <c r="A1968" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1968" s="5">
+      <c r="B1968" s="3">
         <v>600489</v>
       </c>
-      <c r="C1968" s="5" t="s">
+      <c r="C1968" s="3" t="s">
         <v>439</v>
       </c>
       <c r="D1968" s="1" t="s">
@@ -34604,10 +34609,10 @@
       <c r="A1969" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1969" s="5">
+      <c r="B1969" s="3">
         <v>600655</v>
       </c>
-      <c r="C1969" s="5" t="s">
+      <c r="C1969" s="3" t="s">
         <v>1742</v>
       </c>
       <c r="D1969" s="1" t="s">
@@ -34618,10 +34623,10 @@
       <c r="A1970" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1970" s="5">
+      <c r="B1970" s="3">
         <v>601825</v>
       </c>
-      <c r="C1970" s="5" t="s">
+      <c r="C1970" s="3" t="s">
         <v>1971</v>
       </c>
       <c r="D1970" s="1" t="s">
@@ -34632,10 +34637,10 @@
       <c r="A1971" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1971" s="5">
+      <c r="B1971" s="3">
         <v>601916</v>
       </c>
-      <c r="C1971" s="5" t="s">
+      <c r="C1971" s="3" t="s">
         <v>1794</v>
       </c>
       <c r="D1971" s="1" t="s">
@@ -34646,10 +34651,10 @@
       <c r="A1972" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1972" s="5">
+      <c r="B1972" s="3">
         <v>603087</v>
       </c>
-      <c r="C1972" s="5" t="s">
+      <c r="C1972" s="3" t="s">
         <v>1834</v>
       </c>
       <c r="D1972" s="1" t="s">
@@ -34660,19 +34665,271 @@
       <c r="A1973" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1973" s="5">
+      <c r="B1973" s="3">
         <v>603160</v>
       </c>
-      <c r="C1973" s="5" t="s">
+      <c r="C1973" s="3" t="s">
         <v>1582</v>
       </c>
       <c r="D1973" s="1" t="s">
         <v>607</v>
       </c>
     </row>
+    <row r="1974" spans="1:4">
+      <c r="A1974" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1974" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="C1974" s="3" t="s">
+        <v>1996</v>
+      </c>
+      <c r="D1974" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:4">
+      <c r="A1975" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1975" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>1997</v>
+      </c>
+      <c r="D1975" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:4">
+      <c r="A1976" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1976" s="3">
+        <v>600732</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D1976" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:4">
+      <c r="A1977" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1977" s="3">
+        <v>600754</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>721</v>
+      </c>
+      <c r="D1977" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:4">
+      <c r="A1978" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1978" s="3">
+        <v>600875</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D1978" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:4">
+      <c r="A1979" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1979" s="3">
+        <v>601607</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D1979" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:4">
+      <c r="A1980" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1980" s="3">
+        <v>601699</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>869</v>
+      </c>
+      <c r="D1980" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:4">
+      <c r="A1981" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1981" s="3">
+        <v>601872</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>871</v>
+      </c>
+      <c r="D1981" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:4">
+      <c r="A1982" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1982" s="3">
+        <v>688223</v>
+      </c>
+      <c r="C1982" s="5" t="s">
+        <v>1999</v>
+      </c>
+      <c r="D1982" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:4">
+      <c r="A1983" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1983" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>749</v>
+      </c>
+      <c r="D1983" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:4">
+      <c r="A1984" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1984" s="6" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1984" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:4">
+      <c r="A1985" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1985" s="6" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D1985" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:4">
+      <c r="A1986" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1986" s="6" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D1986" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:4">
+      <c r="A1987" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1987" s="3">
+        <v>300529</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D1987" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:4">
+      <c r="A1988" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1988" s="3">
+        <v>300595</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>1856</v>
+      </c>
+      <c r="D1988" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:4">
+      <c r="A1989" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1989" s="3">
+        <v>601966</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D1989" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:4">
+      <c r="A1990" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1990" s="3">
+        <v>603882</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1990" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:4">
+      <c r="A1991" s="4" t="s">
+        <v>1995</v>
+      </c>
+      <c r="B1991" s="3">
+        <v>688169</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D1991" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1943">
-    <sortState ref="A1:D1943">
+  <autoFilter ref="A1:D1973">
+    <sortState ref="A1:D1973">
       <sortCondition ref="A2"/>
     </sortState>
     <extLst/>
@@ -34680,6 +34937,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="B1983:B1986 B1974:B1975" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 

--- a/300inout.xlsx
+++ b/300inout.xlsx
@@ -11,14 +11,14 @@
     <sheet name="20080630" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$1973</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$1991</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10451" uniqueCount="2000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10542" uniqueCount="2012">
   <si>
     <t>变更日期</t>
   </si>
@@ -6047,6 +6047,42 @@
   </si>
   <si>
     <t>晶科能源</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>中际旭创</t>
+  </si>
+  <si>
+    <t>华大九天</t>
+  </si>
+  <si>
+    <t>中航机载</t>
+  </si>
+  <si>
+    <t>海南机场</t>
+  </si>
+  <si>
+    <t>中国海油</t>
+  </si>
+  <si>
+    <t>信达证券</t>
+  </si>
+  <si>
+    <t>海光信息</t>
+  </si>
+  <si>
+    <t>寒武纪-U</t>
+  </si>
+  <si>
+    <t>联影医疗</t>
+  </si>
+  <si>
+    <t>君正集团</t>
+  </si>
+  <si>
+    <t>弘元绿能</t>
   </si>
 </sst>
 </file>
@@ -6673,7 +6709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6688,9 +6724,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -7039,12 +7083,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1991"/>
+  <dimension ref="A1:D2019"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1973" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2000" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B1983" sqref="B1983:B1991"/>
+      <selection pane="bottomLeft" activeCell="D2005" sqref="D2005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -34259,7 +34303,7 @@
       <c r="A1944" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1944" s="6" t="s">
+      <c r="B1944" s="8" t="s">
         <v>1587</v>
       </c>
       <c r="C1944" s="3" t="s">
@@ -34273,7 +34317,7 @@
       <c r="A1945" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1945" s="6" t="s">
+      <c r="B1945" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C1945" s="3" t="s">
@@ -34287,7 +34331,7 @@
       <c r="A1946" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1946" s="6" t="s">
+      <c r="B1946" s="8" t="s">
         <v>1983</v>
       </c>
       <c r="C1946" s="3" t="s">
@@ -34301,7 +34345,7 @@
       <c r="A1947" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1947" s="6" t="s">
+      <c r="B1947" s="8" t="s">
         <v>1985</v>
       </c>
       <c r="C1947" s="3" t="s">
@@ -34469,7 +34513,7 @@
       <c r="A1959" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1959" s="6" t="s">
+      <c r="B1959" s="8" t="s">
         <v>38</v>
       </c>
       <c r="C1959" s="3" t="s">
@@ -34483,7 +34527,7 @@
       <c r="A1960" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1960" s="6" t="s">
+      <c r="B1960" s="8" t="s">
         <v>1216</v>
       </c>
       <c r="C1960" s="3" t="s">
@@ -34497,7 +34541,7 @@
       <c r="A1961" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1961" s="6" t="s">
+      <c r="B1961" s="8" t="s">
         <v>1463</v>
       </c>
       <c r="C1961" s="3" t="s">
@@ -34511,7 +34555,7 @@
       <c r="A1962" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1962" s="6" t="s">
+      <c r="B1962" s="8" t="s">
         <v>1734</v>
       </c>
       <c r="C1962" s="3" t="s">
@@ -34525,7 +34569,7 @@
       <c r="A1963" s="4" t="s">
         <v>1982</v>
       </c>
-      <c r="B1963" s="6" t="s">
+      <c r="B1963" s="8" t="s">
         <v>1897</v>
       </c>
       <c r="C1963" s="3" t="s">
@@ -34679,7 +34723,7 @@
       <c r="A1974" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="B1974" s="6" t="s">
+      <c r="B1974" s="8" t="s">
         <v>674</v>
       </c>
       <c r="C1974" s="3" t="s">
@@ -34693,7 +34737,7 @@
       <c r="A1975" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="B1975" s="6" t="s">
+      <c r="B1975" s="8" t="s">
         <v>246</v>
       </c>
       <c r="C1975" t="s">
@@ -34805,7 +34849,7 @@
       <c r="A1983" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="B1983" s="6" t="s">
+      <c r="B1983" s="8" t="s">
         <v>748</v>
       </c>
       <c r="C1983" t="s">
@@ -34819,7 +34863,7 @@
       <c r="A1984" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="B1984" s="6" t="s">
+      <c r="B1984" s="8" t="s">
         <v>1669</v>
       </c>
       <c r="C1984" t="s">
@@ -34833,7 +34877,7 @@
       <c r="A1985" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="B1985" s="6" t="s">
+      <c r="B1985" s="8" t="s">
         <v>1806</v>
       </c>
       <c r="C1985" t="s">
@@ -34847,7 +34891,7 @@
       <c r="A1986" s="4" t="s">
         <v>1995</v>
       </c>
-      <c r="B1986" s="6" t="s">
+      <c r="B1986" s="8" t="s">
         <v>1544</v>
       </c>
       <c r="C1986" t="s">
@@ -34927,9 +34971,401 @@
         <v>607</v>
       </c>
     </row>
+    <row r="1992" spans="1:4">
+      <c r="A1992" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1992" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:4">
+      <c r="A1993" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1993" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:4">
+      <c r="A1994" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1994" s="7">
+        <v>300308</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>2001</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:4">
+      <c r="A1995" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1995" s="7">
+        <v>301269</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>2002</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:4">
+      <c r="A1996" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1996" s="7">
+        <v>600023</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:4">
+      <c r="A1997" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1997" s="7">
+        <v>600372</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>2003</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:4">
+      <c r="A1998" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1998" s="7">
+        <v>600489</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>439</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:4">
+      <c r="A1999" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B1999" s="7">
+        <v>600515</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:4">
+      <c r="A2000" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2000" s="7">
+        <v>600938</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>2005</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:4">
+      <c r="A2001" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2001" s="7">
+        <v>601059</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:4">
+      <c r="A2002" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2002" s="7">
+        <v>601916</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>1794</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:4">
+      <c r="A2003" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2003" s="7">
+        <v>688041</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:4">
+      <c r="A2004" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2004" s="7">
+        <v>688256</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>2008</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:4">
+      <c r="A2005" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2005" s="7">
+        <v>688271</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:4">
+      <c r="A2006" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2006" s="10" t="s">
+        <v>1587</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:4">
+      <c r="A2007" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2007" s="10" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:4">
+      <c r="A2008" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2008" s="10" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:4">
+      <c r="A2009" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2009" s="10" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:4">
+      <c r="A2010" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2010" s="10" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:4">
+      <c r="A2011" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2011" s="7">
+        <v>300207</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>1948</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:4">
+      <c r="A2012" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2012" s="7">
+        <v>300601</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:4">
+      <c r="A2013" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2013" s="7">
+        <v>300769</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D2013" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:4">
+      <c r="A2014" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2014" s="7">
+        <v>600383</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>658</v>
+      </c>
+      <c r="D2014" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:4">
+      <c r="A2015" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2015" s="7">
+        <v>600763</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D2015" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:4">
+      <c r="A2016" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2016" s="7">
+        <v>600884</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>593</v>
+      </c>
+      <c r="D2016" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:4">
+      <c r="A2017" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2017" s="7">
+        <v>601216</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>2010</v>
+      </c>
+      <c r="D2017" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:4">
+      <c r="A2018" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2018" s="7">
+        <v>603185</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D2018" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:4">
+      <c r="A2019" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="B2019" s="7">
+        <v>688005</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>1977</v>
+      </c>
+      <c r="D2019" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1973">
-    <sortState ref="A1:D1973">
+  <autoFilter ref="A1:D1991">
+    <sortState ref="A1:D1991">
       <sortCondition ref="A2"/>
     </sortState>
     <extLst/>
@@ -34938,7 +35374,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1983:B1986 B1974:B1975" numberStoredAsText="1"/>
+    <ignoredError sqref="B2006:B2010 B1992:B1993 B1974:B1975 B1983:B1986" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/300inout.xlsx
+++ b/300inout.xlsx
@@ -4,21 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7270"/>
+    <workbookView windowWidth="18350" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="20080630" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$1991</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$2019</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10542" uniqueCount="2012">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10619" uniqueCount="2020">
   <si>
     <t>变更日期</t>
   </si>
@@ -6084,11 +6097,35 @@
   <si>
     <t>弘元绿能</t>
   </si>
+  <si>
+    <t>2024-06-15</t>
+  </si>
+  <si>
+    <t>昆仑万维</t>
+  </si>
+  <si>
+    <t>润泽科技</t>
+  </si>
+  <si>
+    <t>新产业</t>
+  </si>
+  <si>
+    <t>中远海能</t>
+  </si>
+  <si>
+    <t>华勤技术</t>
+  </si>
+  <si>
+    <t>盛美上海</t>
+  </si>
+  <si>
+    <t>华侨城 A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -6117,34 +6154,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -6158,14 +6167,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6205,6 +6206,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -6255,7 +6271,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6270,55 +6307,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6336,31 +6331,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6384,6 +6367,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6396,7 +6391,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6420,7 +6439,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6444,6 +6475,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -6461,21 +6498,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -6508,6 +6530,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6564,148 +6601,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6735,55 +6772,56 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -7083,12 +7121,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2019"/>
+  <dimension ref="A1:D2043"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2000" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2026" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2005" sqref="D2005"/>
+      <selection pane="bottomLeft" activeCell="D2031" sqref="D2031"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -35363,9 +35401,345 @@
         <v>607</v>
       </c>
     </row>
+    <row r="2020" spans="1:4">
+      <c r="A2020" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2020" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2020" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:4">
+      <c r="A2021" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2021" s="11" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D2021" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:4">
+      <c r="A2022" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2022" s="7">
+        <v>300418</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>2013</v>
+      </c>
+      <c r="D2022" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:4">
+      <c r="A2023" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2023" s="7">
+        <v>300442</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D2023" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:4">
+      <c r="A2024" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2024" s="7">
+        <v>300832</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D2024" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:4">
+      <c r="A2025" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2025" s="7">
+        <v>600026</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:4">
+      <c r="A2026" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2026" s="7">
+        <v>600027</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>650</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:4">
+      <c r="A2027" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2027" s="7">
+        <v>600161</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>768</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:4">
+      <c r="A2028" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2028" s="7">
+        <v>600415</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>697</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:4">
+      <c r="A2029" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2029" s="7">
+        <v>603296</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:4">
+      <c r="A2030" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2030" s="7">
+        <v>688009</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:4">
+      <c r="A2031" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2031" s="7">
+        <v>688082</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:4">
+      <c r="A2032" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2032" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:4">
+      <c r="A2033" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2033" s="11" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>1940</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:4">
+      <c r="A2034" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2034" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>946</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:4">
+      <c r="A2035" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2035" s="7">
+        <v>300763</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:4">
+      <c r="A2036" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2036" s="7">
+        <v>600606</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:4">
+      <c r="A2037" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2037" s="7">
+        <v>600754</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:4">
+      <c r="A2038" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2038" s="7">
+        <v>601155</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:4">
+      <c r="A2039" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2039" s="7">
+        <v>601615</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:4">
+      <c r="A2040" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2040" s="7">
+        <v>603290</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>1975</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:4">
+      <c r="A2041" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2041" s="7">
+        <v>603486</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:4">
+      <c r="A2042" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2042" s="7">
+        <v>688065</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>1979</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:4">
+      <c r="A2043" s="4" t="s">
+        <v>2012</v>
+      </c>
+      <c r="B2043" s="7">
+        <v>688561</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>1931</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D1991">
-    <sortState ref="A1:D1991">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D2019" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:D2019">
       <sortCondition ref="A2"/>
     </sortState>
     <extLst/>
@@ -35374,7 +35748,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B2006:B2010 B1992:B1993 B1974:B1975 B1983:B1986" numberStoredAsText="1"/>
+    <ignoredError sqref="B1983:B1986 B1974:B1975 B1992:B1993 B2006:B2010" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/300inout.xlsx
+++ b/300inout.xlsx
@@ -11,7 +11,7 @@
     <sheet name="20080630" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$2019</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$D$2043</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10619" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10731" uniqueCount="2032">
   <si>
     <t>变更日期</t>
   </si>
@@ -6120,6 +6120,42 @@
   </si>
   <si>
     <t>华侨城 A</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>山金国际</t>
+  </si>
+  <si>
+    <t>天孚通信</t>
+  </si>
+  <si>
+    <t>新易盛</t>
+  </si>
+  <si>
+    <t>赛力斯</t>
+  </si>
+  <si>
+    <t>首创证券</t>
+  </si>
+  <si>
+    <t>阿特斯</t>
+  </si>
+  <si>
+    <t>百利天恒</t>
+  </si>
+  <si>
+    <t>晨光股份</t>
+  </si>
+  <si>
+    <t>2025-02-06</t>
+  </si>
+  <si>
+    <t>赛轮轮胎</t>
+  </si>
+  <si>
+    <t>海通证券</t>
   </si>
 </sst>
 </file>
@@ -7121,12 +7157,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2043"/>
+  <dimension ref="A1:D2077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2026" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2061" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D2031" sqref="D2031"/>
+      <selection pane="bottomLeft" activeCell="B2076" sqref="B2076"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
@@ -35737,9 +35773,485 @@
         <v>607</v>
       </c>
     </row>
+    <row r="2044" spans="1:4">
+      <c r="A2044" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2044" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:4">
+      <c r="A2045" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2045" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>2021</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:4">
+      <c r="A2046" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2046" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>995</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:4">
+      <c r="A2047" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2047" s="11" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:4">
+      <c r="A2048" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2048" s="11" t="s">
+        <v>1770</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>1771</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:4">
+      <c r="A2049" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2049" s="7">
+        <v>300394</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:4">
+      <c r="A2050" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2050" s="7">
+        <v>300502</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>2023</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:4">
+      <c r="A2051" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2051" s="7">
+        <v>600066</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>759</v>
+      </c>
+      <c r="D2051" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:4">
+      <c r="A2052" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2052" s="7">
+        <v>600160</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>766</v>
+      </c>
+      <c r="D2052" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:4">
+      <c r="A2053" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2053" s="7">
+        <v>600377</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>433</v>
+      </c>
+      <c r="D2053" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:4">
+      <c r="A2054" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2054" s="7">
+        <v>600482</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>1522</v>
+      </c>
+      <c r="D2054" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:4">
+      <c r="A2055" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2055" s="7">
+        <v>601127</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>2024</v>
+      </c>
+      <c r="D2055" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:4">
+      <c r="A2056" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2056" s="7">
+        <v>601136</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D2056" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:4">
+      <c r="A2057" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2057" s="7">
+        <v>688169</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D2057" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:4">
+      <c r="A2058" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2058" s="7">
+        <v>688472</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>2026</v>
+      </c>
+      <c r="D2058" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:4">
+      <c r="A2059" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2059" s="7">
+        <v>688506</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D2059" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:4">
+      <c r="A2060" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2060" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2060" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2060" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:4">
+      <c r="A2061" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2061" s="11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C2061" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D2061" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:4">
+      <c r="A2062" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2062" s="11" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C2062" s="7" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D2062" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:4">
+      <c r="A2063" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2063" s="11" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C2063" s="7" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D2063" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:4">
+      <c r="A2064" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2064" s="11" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C2064" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D2064" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:4">
+      <c r="A2065" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2065" s="7">
+        <v>300142</v>
+      </c>
+      <c r="C2065" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D2065" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:4">
+      <c r="A2066" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2066" s="7">
+        <v>300223</v>
+      </c>
+      <c r="C2066" s="7" t="s">
+        <v>1950</v>
+      </c>
+      <c r="D2066" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:4">
+      <c r="A2067" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2067" s="7">
+        <v>300454</v>
+      </c>
+      <c r="C2067" s="7" t="s">
+        <v>1952</v>
+      </c>
+      <c r="D2067" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:4">
+      <c r="A2068" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2068" s="7">
+        <v>300496</v>
+      </c>
+      <c r="C2068" s="7" t="s">
+        <v>1954</v>
+      </c>
+      <c r="D2068" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:4">
+      <c r="A2069" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2069" s="7">
+        <v>300751</v>
+      </c>
+      <c r="C2069" s="7" t="s">
+        <v>1958</v>
+      </c>
+      <c r="D2069" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:4">
+      <c r="A2070" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2070" s="7">
+        <v>300919</v>
+      </c>
+      <c r="C2070" s="7" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D2070" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:4">
+      <c r="A2071" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2071" s="7">
+        <v>300957</v>
+      </c>
+      <c r="C2071" s="7" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D2071" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:4">
+      <c r="A2072" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2072" s="7">
+        <v>600132</v>
+      </c>
+      <c r="C2072" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2072" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:4">
+      <c r="A2073" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2073" s="7">
+        <v>600732</v>
+      </c>
+      <c r="C2073" s="7" t="s">
+        <v>1998</v>
+      </c>
+      <c r="D2073" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:4">
+      <c r="A2074" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2074" s="7">
+        <v>603899</v>
+      </c>
+      <c r="C2074" s="7" t="s">
+        <v>2028</v>
+      </c>
+      <c r="D2074" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:4">
+      <c r="A2075" s="4" t="s">
+        <v>2020</v>
+      </c>
+      <c r="B2075" s="7">
+        <v>688363</v>
+      </c>
+      <c r="C2075" s="7" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D2075" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:4">
+      <c r="A2076" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2076" s="7">
+        <v>601058</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>2030</v>
+      </c>
+      <c r="D2076" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:4">
+      <c r="A2077" s="4" t="s">
+        <v>2029</v>
+      </c>
+      <c r="B2077" s="7">
+        <v>600837</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>2031</v>
+      </c>
+      <c r="D2077" t="s">
+        <v>607</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D2019" etc:filterBottomFollowUsedRange="0">
-    <sortState ref="A1:D2019">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D2043" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A1:D2043">
       <sortCondition ref="A2"/>
     </sortState>
     <extLst/>
@@ -35748,7 +36260,7 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="B1983:B1986 B1974:B1975 B1992:B1993 B2006:B2010" numberStoredAsText="1"/>
+    <ignoredError sqref="B2060:B2064 B2044:B2048 B2006:B2010 B1992:B1993 B1974:B1975 B1983:B1986" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
